--- a/data/income_statement/2digits/size/73_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/73_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>73-Advertising and market research</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>73-Advertising and market research</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,521 +841,591 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1301427.61417</v>
+        <v>1383845.40132</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1471948.28892</v>
+        <v>1551838.1705</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1636667.64612</v>
+        <v>1700589.19223</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1675267.43209</v>
+        <v>1771996.00851</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1570984.29709</v>
+        <v>1670235.52843</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1701275.03195</v>
+        <v>1799876.58886</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1700304.54006</v>
+        <v>1831524.68582</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2023955.07531</v>
+        <v>2173897.11215</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1950370.37846</v>
+        <v>2129012.21929</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3623205.28962</v>
+        <v>3920897.47541</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3739768.09334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4331895.4734</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4258283.506</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1216891.92064</v>
+        <v>1293388.55182</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1392764.85849</v>
+        <v>1465724.79352</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1549163.511</v>
+        <v>1608839.17683</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1587190.82101</v>
+        <v>1675601.41692</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1482632.13146</v>
+        <v>1575428.62763</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1615679.93136</v>
+        <v>1706845.29341</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1628576.08919</v>
+        <v>1753406.377</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1912960.12923</v>
+        <v>2050931.46917</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1869657.46066</v>
+        <v>2037366.83378</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3391484.65536</v>
+        <v>3668419.64264</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3485664.14876</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4049899.05214</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3993451.644</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>49908.25845999999</v>
+        <v>52269.57766999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>45853.86115999999</v>
+        <v>48384.08532</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>52824.95043</v>
+        <v>54446.07642</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>44918.69213</v>
+        <v>49056.58519999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>47740.26828</v>
+        <v>51150.15416000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>54709.91226</v>
+        <v>58166.36378</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>44932.69286</v>
+        <v>47760.73011</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>80468.86401999999</v>
+        <v>85258.54878</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>51556.3278</v>
+        <v>56962.9081</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>181026.4749</v>
+        <v>190230.3514</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>196374.67428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>209999.09015</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>195567.881</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>34627.43507</v>
+        <v>38187.27183</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>33329.56927</v>
+        <v>37729.29166</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>34679.18468999999</v>
+        <v>37303.93898</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>43157.91895000001</v>
+        <v>47338.00639</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>40611.89735</v>
+        <v>43656.74664</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>30885.18833</v>
+        <v>34864.93167000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>26795.75801</v>
+        <v>30357.57871</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>30526.08206</v>
+        <v>37707.09419999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>29156.59</v>
+        <v>34682.47741000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>50694.15936</v>
+        <v>62247.48136999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>57729.2703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>71997.33111</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>69263.981</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>14611.46244</v>
+        <v>16951.57856</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>13442.05615</v>
+        <v>14392.11937</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>10860.13512</v>
+        <v>12332.37641</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>10688.03276</v>
+        <v>12080.70537</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>10227.74084</v>
+        <v>11559.64577</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>11545.39993</v>
+        <v>15181.82718</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>15972.05452</v>
+        <v>16585.87869</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>16729.2747</v>
+        <v>18309.84996</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>16720.67024</v>
+        <v>17873.9111</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>40552.65332</v>
+        <v>41690.31792</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>35486.02963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>45896.57986</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>77454.974</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>12943.52678</v>
+        <v>14142.27237</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>11462.41937</v>
+        <v>12331.55248</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>10014.45698</v>
+        <v>11460.35138</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9407.248210000002</v>
+        <v>10784.30161</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9107.1705</v>
+        <v>10173.36479</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10736.34071</v>
+        <v>13649.82417</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>14430.15733</v>
+        <v>15029.35195</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>15671.01565</v>
+        <v>17211.39489</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>11475.33802</v>
+        <v>12561.40081</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>36582.0468</v>
+        <v>37262.23155</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>31880.73847</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>41408.25346</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>75197.49099999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1279.69399</v>
+        <v>2407.0112</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1432.17763</v>
+        <v>1512.95774</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>685.46315</v>
+        <v>705.34065</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>897.73169</v>
+        <v>912.01932</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>521.3299500000001</v>
+        <v>784.52162</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>525.34501</v>
+        <v>1239.0479</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>699.81696</v>
+        <v>709.39601</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>488.2231</v>
+        <v>525.06494</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>479.52284</v>
+        <v>516.88698</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1293.07045</v>
+        <v>1746.94498</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1086.47495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1706.40525</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>990.604</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>388.24167</v>
+        <v>402.29499</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>547.45915</v>
+        <v>547.60915</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>160.21499</v>
+        <v>166.68438</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>383.05286</v>
+        <v>384.38444</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>599.24039</v>
+        <v>601.75936</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>283.71421</v>
+        <v>292.95511</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>842.08023</v>
+        <v>847.13073</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>570.03595</v>
+        <v>573.39013</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>4765.80938</v>
+        <v>4795.62331</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2677.53607</v>
+        <v>2681.14139</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2518.81621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2781.921150000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1266.879</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1286816.15173</v>
+        <v>1366893.82276</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1458506.23277</v>
+        <v>1537446.05113</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1625807.511</v>
+        <v>1688256.81582</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1664579.39933</v>
+        <v>1759915.30314</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1560756.55625</v>
+        <v>1658675.88266</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1689729.63202</v>
+        <v>1784694.76168</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1684332.48554</v>
+        <v>1814938.80713</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2007225.80061</v>
+        <v>2155587.26219</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1933649.70822</v>
+        <v>2111138.30819</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3582652.6363</v>
+        <v>3879207.15749</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3704282.06371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4285998.89354</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4180828.532</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>950541.2544100001</v>
+        <v>1005270.64348</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1069659.40896</v>
+        <v>1118524.05723</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1207009.04451</v>
+        <v>1248360.24661</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1221663.45222</v>
+        <v>1283223.20025</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1125407.05538</v>
+        <v>1190891.26432</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1259608.04946</v>
+        <v>1325685.61515</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1249239.8512</v>
+        <v>1332974.31365</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1531655.28186</v>
+        <v>1632743.45442</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1475263.11056</v>
+        <v>1593047.43499</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2744803.96789</v>
+        <v>2962452.45383</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2834639.39387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3297610.52001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3157788.975</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>81313.41091999999</v>
+        <v>92173.11195999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>95444.82803</v>
+        <v>100543.70941</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>107999.9031</v>
+        <v>113626.93209</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>96111.32505</v>
+        <v>108105.3677</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>65773.17994</v>
+        <v>72926.73240000001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>68201.00275</v>
+        <v>76783.79244</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>57172.36831000001</v>
+        <v>68811.92281</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>66165.38193999999</v>
+        <v>77569.36851</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>66155.43024</v>
+        <v>78391.45381000001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>171397.03522</v>
+        <v>184557.56865</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>177246.54584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>200374.60606</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>209698.811</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>284940.96116</v>
+        <v>295338.82576</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>307092.9434099999</v>
+        <v>321167.20685</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>364256.14161</v>
+        <v>377291.09203</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>345793.25224</v>
+        <v>360654.12674</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>292829.80529</v>
+        <v>311575.879</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>395265.66239</v>
+        <v>413848.87228</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>402074.77576</v>
+        <v>423274.84958</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>590089.86647</v>
+        <v>615831.8831500001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>520801.28035</v>
+        <v>548509.87728</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>874170.1510399999</v>
+        <v>967461.14833</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>933160.70117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1171698.94654</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1138060.517</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>582385.6405</v>
+        <v>615857.46393</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>664647.85574</v>
+        <v>694339.3591900001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>730582.9668099999</v>
+        <v>753270.7507100001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>777830.8452400001</v>
+        <v>812535.67612</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>764566.6766400001</v>
+        <v>803625.20976</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>791811.16772</v>
+        <v>830605.7815500001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>785373.43695</v>
+        <v>835963.2812800001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>871815.27058</v>
+        <v>935108.56035</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>881857.96727</v>
+        <v>958512.5231400001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1691382.75876</v>
+        <v>1801882.10003</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1712431.87626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1912989.95767</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1802893.067</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1901.24183</v>
@@ -1463,610 +1434,685 @@
         <v>2473.78178</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>4170.032990000001</v>
+        <v>4171.47178</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>1928.02969</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2237.39351</v>
+        <v>2763.44316</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4330.216600000001</v>
+        <v>4447.168880000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4619.27018</v>
+        <v>4924.259980000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3584.76287</v>
+        <v>4233.64241</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>6448.4327</v>
+        <v>7633.580760000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>7854.02287</v>
+        <v>8551.63682</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>11800.2706</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12547.00974</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>7136.58</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>336274.89732</v>
+        <v>361623.17928</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>388846.82381</v>
+        <v>418921.9939</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>418798.46649</v>
+        <v>439896.56921</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>442915.94711</v>
+        <v>476692.10289</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>435349.50087</v>
+        <v>467784.61834</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>430121.58256</v>
+        <v>459009.14653</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>435092.63434</v>
+        <v>481964.49348</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>475570.51875</v>
+        <v>522843.80777</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>458386.59766</v>
+        <v>518090.8732</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>837848.6684099999</v>
+        <v>916754.70366</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>869642.6698399999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>988388.37353</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1023039.557</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>299621.74877</v>
+        <v>327359.1955499999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>327657.2088</v>
+        <v>355608.84165</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>361349.33228</v>
+        <v>386431.78589</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>384369.02351</v>
+        <v>412742.42377</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>393483.1017</v>
+        <v>435802.75895</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>394637.3211</v>
+        <v>443038.21156</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>399437.76121</v>
+        <v>455386.32827</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>446777.43671</v>
+        <v>506113.41398</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>431391.94171</v>
+        <v>497395.54919</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>724277.01474</v>
+        <v>794938.98902</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>795565.9298699999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>901051.6732300001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>834492.6459999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>941.88738</v>
+        <v>1007.65767</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1022.49638</v>
+        <v>1723.26888</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1389.29493</v>
+        <v>1401.93247</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2198.64867</v>
+        <v>2231.14867</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1604.0271</v>
+        <v>1610.19353</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>3605.20154</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3988.65067</v>
+        <v>4013.79331</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2919.48423</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2639.68419</v>
+        <v>2649.93943</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>4153.8777</v>
+        <v>4155.26754</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4560.91805</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4796.56805</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1193.422</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>40811.41802</v>
+        <v>43270.18397</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>49435.87015</v>
+        <v>52562.17724</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>57647.21286</v>
+        <v>59978.24494</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>55777.62323</v>
+        <v>59628.93402</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>71586.97139000001</v>
+        <v>78369.80786</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>57767.61893</v>
+        <v>63379.29935</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>63792.07247</v>
+        <v>72024.52598000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>65404.24694</v>
+        <v>72200.00328</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>53478.93882</v>
+        <v>61470.08179</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>109019.87293</v>
+        <v>121321.71945</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>134963.35813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>150270.77886</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>114822.5</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>257868.44337</v>
+        <v>283081.35391</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>277198.84227</v>
+        <v>301323.39553</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>302312.82449</v>
+        <v>325051.60848</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>326392.75161</v>
+        <v>350882.34108</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>320292.10321</v>
+        <v>355822.75756</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>333264.50063</v>
+        <v>376053.7106699999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>331657.03807</v>
+        <v>379348.00898</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>378453.70554</v>
+        <v>430993.9264699999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>375273.3187</v>
+        <v>433275.52797</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>611103.2641099999</v>
+        <v>669462.00203</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>656041.6536899999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>745984.3263200001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>718476.724</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>36653.14855000001</v>
+        <v>34263.98373</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>61189.61501</v>
+        <v>63313.15225</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>57449.13421</v>
+        <v>53464.78332</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>58546.9236</v>
+        <v>63949.67912000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>41866.39917</v>
+        <v>31981.85939</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>35484.26146</v>
+        <v>15970.93497</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>35654.87312999999</v>
+        <v>26578.16521</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>28793.08204</v>
+        <v>16730.39379</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>26994.65595</v>
+        <v>20695.32401</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>113571.65367</v>
+        <v>121815.71464</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>74076.73997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>87336.7003</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>188546.911</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>7986.98625</v>
+        <v>17973.46296</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8225.820250000001</v>
+        <v>28160.67479</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>9871.931570000001</v>
+        <v>24998.11135</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7867.086020000001</v>
+        <v>16590.49165</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>10805.82453</v>
+        <v>21338.38449</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8498.426800000001</v>
+        <v>25648.65755</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11981.01295</v>
+        <v>28180.20287</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>14269.05273</v>
+        <v>37199.26041</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>23776.27295</v>
+        <v>59262.89811</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>49479.49765</v>
+        <v>112797.78679</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>41387.72287999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>92027.96135000001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>77102.823</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4.71953</v>
+        <v>560.1811700000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1.77957</v>
+        <v>2647.46401</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>221.34801</v>
+        <v>715.23076</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>155.13194</v>
+        <v>271.11796</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1.84355</v>
+        <v>379.29963</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>248.93154</v>
+        <v>1161.98896</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1346.7828</v>
+        <v>3372.00051</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>386.34858</v>
+        <v>2996.52609</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>318.62759</v>
+        <v>3991.31373</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>870.29084</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>231.68752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4461.401789999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>4651.883</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>74.96299999999999</v>
+        <v>1763.50572</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>51.14486</v>
+        <v>107.07981</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>54.20298</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>1501.96576</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>229.94056</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>1382.92913</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>24.93808</v>
+        <v>4533.64569</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>46.35155</v>
+        <v>3849.51019</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>79.2741</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>15704.14487</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>4858.944</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2352.02218</v>
+        <v>3834.94319</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1966.95967</v>
+        <v>3820.03516</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2107.02255</v>
+        <v>3104.73445</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2053.60316</v>
+        <v>3399.91317</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2196.14751</v>
+        <v>4428.176890000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2111.5413</v>
+        <v>7004.381689999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2400.54878</v>
+        <v>7381.48462</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2541.58254</v>
+        <v>7425.67056</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2949.55734</v>
+        <v>7852.918570000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>9705.83418</v>
+        <v>17343.51426</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>11186.68578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>23632.6335</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>17517.134</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>226.32642</v>
+        <v>502.64766</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>604.98941</v>
+        <v>628.6173700000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>869.19336</v>
+        <v>921.7824300000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>184.16245</v>
+        <v>193.31219</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>277.9962</v>
+        <v>828.04965</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>747.6836500000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>744.70823</v>
+        <v>746.12423</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>650.2243199999999</v>
+        <v>691.5128199999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>11060.07374</v>
+        <v>11102.37239</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2126.72323</v>
+        <v>2152.5985</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1797.51173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2673.94437</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1490.548</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>353.41122</v>
+        <v>1068.4284</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>822.3760100000001</v>
+        <v>840.18795</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>665.63738</v>
+        <v>739.83272</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>987.89926</v>
+        <v>1026.85226</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1784.18392</v>
+        <v>2191.39453</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>297.56862</v>
+        <v>1251.05887</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>393.09264</v>
+        <v>700.14876</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>408.87954</v>
+        <v>727.90016</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1210.0713</v>
+        <v>1737.21125</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1121.48959</v>
+        <v>1497.90134</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1511.96809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1962.55325</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>799.103</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>338.55697</v>
+        <v>429.47579</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>184.17999</v>
+        <v>271.45746</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>226.03236</v>
+        <v>774.7835</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>278.54043</v>
+        <v>912.75378</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>257.15035</v>
+        <v>923.29828</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>321.84342</v>
+        <v>2576.61733</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>371.84953</v>
+        <v>1195.64485</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>386.86046</v>
+        <v>394.49557</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>295.3144</v>
+        <v>423.15554</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1322.37123</v>
+        <v>1365.34822</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1671.51429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2173.63999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1080.124</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2524.57434</v>
+        <v>3995.5294</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1916.15329</v>
+        <v>13009.658</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2956.59316</v>
+        <v>8484.40958</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1471.90678</v>
+        <v>3835.81258</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3729.30495</v>
+        <v>7096.745390000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2171.04944</v>
+        <v>6959.63545</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3945.23766</v>
+        <v>8886.37967</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4930.41416</v>
+        <v>14486.18343</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4254.08973</v>
+        <v>20861.53587</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>29266.86772</v>
+        <v>74364.58992</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>13345.07897</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>26819.81636</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>38769.951</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>53.25924</v>
+        <v>55.21171</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>15.21467</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>42.32097</v>
+        <v>42.58778</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>108.42312</v>
+        <v>109.03034</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>30.70401</v>
+        <v>42.64949000000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>37.87284</v>
+        <v>38.26394000000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>38.58625</v>
+        <v>302.1262</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>20.11901</v>
+        <v>20.63001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>27.9034</v>
+        <v>181.85931</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>61.72557999999999</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>57.82262</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>29.788</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>23.84521</v>
+        <v>26.16361</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>61.10426</v>
@@ -2090,19 +2141,19 @@
         <v>61.72295</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>8.02938</v>
+        <v>164.25251</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>26.21398</v>
+        <v>26.87698</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0</v>
+        <v>4.83439</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>4.15843</v>
@@ -2113,245 +2164,280 @@
       <c r="M34" s="48" t="n">
         <v>45.58495</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>75.04000000000001</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2035.30814</v>
+        <v>5737.37631</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2601.91852</v>
+        <v>6759.8561</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2722.06083</v>
+        <v>10153.02718</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2619.3895</v>
+        <v>6623.24388</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2528.49404</v>
+        <v>5448.770630000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2535.72201</v>
+        <v>4380.18492</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2740.20706</v>
+        <v>5366.35347</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4944.62412</v>
+        <v>9068.57825</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3631.53894</v>
+        <v>8574.72733</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4946.32892</v>
+        <v>11280.79313</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11460.59483</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>14496.41965</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>7830.308</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>7368.342720000001</v>
+        <v>10187.23559</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4795.711770000001</v>
+        <v>12913.35392</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8605.116380000001</v>
+        <v>17678.42638</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5385.03174</v>
+        <v>7572.50408</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>8035.0105</v>
+        <v>17365.57442</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>8261.541799999999</v>
+        <v>15592.67245</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>11306.67922</v>
+        <v>29820.01643</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>13129.83809</v>
+        <v>28045.86075</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>19519.61639</v>
+        <v>42761.9085</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>56979.09273</v>
+        <v>123483.04945</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>20346.06551</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>39205.32654000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>120264.459</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>588.5724200000001</v>
+        <v>901.84752</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>844.1203399999999</v>
+        <v>883.3212900000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1539.00661</v>
+        <v>1931.8144</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>861.5263400000001</v>
+        <v>906.63084</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1270.84838</v>
+        <v>1930.68019</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1144.77426</v>
+        <v>1164.31938</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1983.68883</v>
+        <v>2015.58988</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1753.46674</v>
+        <v>1824.95731</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>11330.43249</v>
+        <v>11413.98553</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>16868.50443</v>
+        <v>17669.80784</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3443.64283</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3904.02646</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4222.817</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1970.42199</v>
+        <v>2157.21451</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>883.81426</v>
+        <v>886.41498</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1152.49271</v>
+        <v>1260.9202</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>727.07056</v>
+        <v>962.13703</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2255.0612</v>
+        <v>3285.30818</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3307.52414</v>
+        <v>3826.0736</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1948.52047</v>
+        <v>12174.14709</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2034.16665</v>
+        <v>7911.34005</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1428.13428</v>
+        <v>1625.55728</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3929.4574</v>
+        <v>4664.707909999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3340.93027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3415.11471</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2555.251</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>175.15212</v>
+        <v>219.69597</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>25.83091</v>
+        <v>63.4736</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>30.07192</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>32.71227</v>
+        <v>33.74656</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>10.01741</v>
+        <v>68.13741</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>24.01417</v>
+        <v>977.8771700000001</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>32.28119</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>45.92168</v>
+        <v>57.69706</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>59.70314</v>
+        <v>629.92585</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>750.7528500000001</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>265.10136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>265.10237</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>262.645</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2608.19812</v>
+        <v>4177.92734</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1734.61743</v>
+        <v>9188.07265</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2570.07952</v>
+        <v>10483.85917</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2061.2327</v>
+        <v>3751.4974</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2834.7217</v>
+        <v>10322.72229</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2290.63046</v>
+        <v>7904.326529999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3263.95156</v>
+        <v>7642.91755</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3970.10678</v>
+        <v>8643.20081</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5087.38749</v>
+        <v>27360.70452</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>31139.44314</v>
+        <v>95857.59026000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10670.94914</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>28598.03618</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>38603.965</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>62.48143</v>
@@ -2360,7 +2446,7 @@
         <v>60.1537</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>14.56747</v>
+        <v>14.60947</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>1.69833</v>
@@ -2369,16 +2455,16 @@
         <v>119.23909</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>23.47018</v>
+        <v>25.42018</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>3.25433</v>
+        <v>5.36245</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>1.77203</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>51.01592</v>
@@ -2386,20 +2472,25 @@
       <c r="M41" s="48" t="n">
         <v>1.2645</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3e-05</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>26.02454</v>
+        <v>439.65868</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.96905</v>
+        <v>615.32948</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0.00105</v>
@@ -2408,10 +2499,10 @@
         <v>4.10711</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0.00125</v>
+        <v>0.00728</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>35.3174</v>
+        <v>37.7174</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>1e-05</v>
@@ -2425,368 +2516,418 @@
       <c r="M42" s="48" t="n">
         <v>0.54948</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1963.51661</v>
+        <v>2668.06879</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1221.15059</v>
+        <v>1392.25902</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3297.9291</v>
+        <v>3341.82174</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1700.79049</v>
+        <v>1916.79287</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1541.01561</v>
+        <v>1635.38015</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1471.12734</v>
+        <v>1694.64831</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4039.66544</v>
+        <v>7912.00087</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5324.4042</v>
+        <v>9606.893480000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1613.91201</v>
+        <v>1727.99834</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4238.50828</v>
+        <v>4487.76396</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2623.62793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3021.23284</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>74618.302</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10321.06144</v>
+        <v>14417.55062</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>8019.73757</v>
+        <v>12145.70881</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>9204.994470000001</v>
+        <v>11506.97467</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>11317.78626</v>
+        <v>15608.29743</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>11497.07945</v>
+        <v>15807.41129</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>9281.5324</v>
+        <v>18713.27644</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>10683.77843</v>
+        <v>25661.94753</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>12346.41425</v>
+        <v>26360.80008</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>10723.79114</v>
+        <v>28183.02726</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>31891.95308</v>
+        <v>72366.05357999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>30181.99273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>79860.55333</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>53551.755</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>10021.07012</v>
+        <v>13960.70592</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>7775.047310000001</v>
+        <v>11518.96044</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>8879.3529</v>
+        <v>10976.01361</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>10995.99325</v>
+        <v>14981.90679</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>10393.92519</v>
+        <v>13933.4683</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8510.482099999999</v>
+        <v>16538.72734</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9259.235200000001</v>
+        <v>22976.80894</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>10743.8258</v>
+        <v>24032.49139</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>9767.69786</v>
+        <v>27010.47633</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>27825.19569</v>
+        <v>68001.94859999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>29475.89018</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>78912.82225</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>52560.297</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>299.99132</v>
+        <v>456.8447</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>244.69026</v>
+        <v>626.74837</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>325.64157</v>
+        <v>530.9610600000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>321.7930099999999</v>
+        <v>626.39064</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1103.15426</v>
+        <v>1873.94299</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>771.0503</v>
+        <v>2174.5491</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1424.54323</v>
+        <v>2685.13859</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1602.58845</v>
+        <v>2328.30869</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>956.09328</v>
+        <v>1172.55093</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>4066.75739</v>
+        <v>4364.10498</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>706.1025500000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>947.7310799999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>991.458</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>26950.73064</v>
+        <v>27632.66048</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>56599.98592</v>
+        <v>66414.76431</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>49510.95493</v>
+        <v>49277.49361999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>49711.19162</v>
+        <v>57359.36926</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>33140.13375</v>
+        <v>20147.25817</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>26439.61406</v>
+        <v>7313.643629999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>25645.42843</v>
+        <v>-723.5958800000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>17585.88243</v>
+        <v>-477.00663</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>20527.52137</v>
+        <v>9013.28636</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>74180.10551000001</v>
+        <v>38764.3984</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>64936.40461</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>60298.78178</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>91833.52</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>9239.554360000002</v>
+        <v>15684.99786</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5608.15442</v>
+        <v>7638.19703</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7658.29913</v>
+        <v>9404.724340000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8857.860570000001</v>
+        <v>10785.62908</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7841.76024</v>
+        <v>9801.081829999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>10741.59017</v>
+        <v>35358.06089</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>8788.391009999999</v>
+        <v>37548.02409</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>11138.0024</v>
+        <v>16382.36697</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>12490.03934</v>
+        <v>18197.59992</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>23142.87076</v>
+        <v>50480.42321</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>28524.66773</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>35197.26132</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>138685.295</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>99.61580000000001</v>
+        <v>144.54013</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>100.58253</v>
+        <v>116.94405</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>184.05523</v>
+        <v>186.92802</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>568.70207</v>
+        <v>569.55778</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>159.22245</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>86.67433</v>
+        <v>197.65769</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>89.20408999999999</v>
+        <v>89.43521</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>210.36031</v>
+        <v>222.1851</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>139.24708</v>
+        <v>221.10689</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>505.10282</v>
+        <v>506.00282</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>621.79555</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1619.95456</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>744.455</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9139.938560000001</v>
+        <v>15540.45773</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5507.57189</v>
+        <v>7521.25298</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7474.2439</v>
+        <v>9217.796319999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8289.1585</v>
+        <v>10216.0713</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>7682.53779</v>
+        <v>9641.859379999998</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>10654.91584</v>
+        <v>35160.40319999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>8699.18692</v>
+        <v>37458.58888</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>10927.64209</v>
+        <v>16160.18187</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>12350.79226</v>
+        <v>17976.49303</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>22637.76794</v>
+        <v>49974.42039</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>27902.87218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>33577.30676</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>137940.84</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>9227.184039999998</v>
+        <v>13691.79642</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>10425.74314</v>
+        <v>13138.14688</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>127017.21571</v>
+        <v>134903.81101</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>13840.55713</v>
+        <v>16308.26651</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>12334.84841</v>
+        <v>18878.54618</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>57582.36354999999</v>
+        <v>89854.61231</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>12196.96225</v>
+        <v>20419.70509</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>71191.5009</v>
+        <v>119805.55062</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>20869.907</v>
+        <v>40826.11446</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>119101.80881</v>
+        <v>141432.64546</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>41096.60102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>49802.33784</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>54181.177</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>60.31236</v>
+        <v>542.19636</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>39.62861</v>
+        <v>171.73532</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>86.04078999999999</v>
@@ -2798,220 +2939,248 @@
         <v>46.34802</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>205.67183</v>
+        <v>205.67385</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>72.53547</v>
+        <v>121.53547</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>286.0998</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>193.59337</v>
+        <v>214.77719</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>360.0904</v>
+        <v>372.8792</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>152.87815</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>166.459</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>969.7429400000001</v>
+        <v>1043.29999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1127.34299</v>
+        <v>1152.59673</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1474.1483</v>
+        <v>1712.49691</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>835.35938</v>
+        <v>1168.83388</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>859.7481</v>
+        <v>3008.24619</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1100.69418</v>
+        <v>2688.33785</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1269.07067</v>
+        <v>1770.53855</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2170.05369</v>
+        <v>2487.02141</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>784.9374700000001</v>
+        <v>800.25275</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1205.46259</v>
+        <v>1700.88427</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1768.52987</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1906.22722</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1454.064</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>8197.12874</v>
+        <v>12106.30007</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9258.77154</v>
+        <v>11813.81483</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>125457.02662</v>
+        <v>133105.27331</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>12778.17984</v>
+        <v>14912.41472</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>11428.75229</v>
+        <v>15823.95197</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>56275.99754</v>
+        <v>86960.60060999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>10855.35611</v>
+        <v>18527.63107</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>68735.34741000002</v>
+        <v>117032.42941</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>19891.37616</v>
+        <v>39811.08452</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>117536.25582</v>
+        <v>139358.88199</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>39175.193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>47743.23247</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>52560.654</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>26963.10096</v>
+        <v>29625.86192</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>51782.3972</v>
+        <v>60914.81446</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-69847.96165000001</v>
+        <v>-76221.59305</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>44728.49506</v>
+        <v>51836.73183</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>28647.04558</v>
+        <v>11069.79382</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-20401.15932</v>
+        <v>-47182.90779</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>22236.85719</v>
+        <v>16404.72312</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-42467.61607</v>
+        <v>-103900.19028</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>12147.65371</v>
+        <v>-13615.22818</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-21778.83254</v>
+        <v>-52187.82384999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>52364.47132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>45693.70526</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>176337.638</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>11788.56243</v>
+        <v>13039.67941</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>14746.98274</v>
+        <v>17587.85293</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>16080.96566</v>
+        <v>17067.50544</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>16654.65521</v>
+        <v>18720.58824</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>15929.46749</v>
+        <v>17434.37488</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15144.38598</v>
+        <v>17704.00171</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>15333.12285</v>
+        <v>18143.97279</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>14936.2442</v>
+        <v>18911.34466</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>15637.10186</v>
+        <v>19176.70038</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>34554.72552</v>
+        <v>41591.19361</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>38081.81551</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>47111.78219</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>65039.039</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>15174.53853</v>
+        <v>16586.18251</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>37035.41446</v>
+        <v>43326.96152999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-85928.92731</v>
+        <v>-93289.09848999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>28073.83985</v>
+        <v>33116.14359000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>12717.57809</v>
+        <v>-6364.58106</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-35545.5453</v>
+        <v>-64886.9095</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>6903.73434</v>
+        <v>-1739.24967</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-57403.86027</v>
+        <v>-122811.53494</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-3489.44815</v>
+        <v>-32791.92856</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-56333.55806</v>
+        <v>-93779.01746</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>14282.65581</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1418.076930000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>111298.599</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>5522</v>
+        <v>5741</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5569</v>
+        <v>5802</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5623</v>
+        <v>5831</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5507</v>
+        <v>5768</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5092</v>
+        <v>5368</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4987</v>
+        <v>5292</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4911</v>
+        <v>5306</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4959</v>
+        <v>5426</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>5032</v>
+        <v>5530</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5940</v>
+        <v>6431</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5982</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6723</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7029</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>